--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Exam Summary.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Exam Summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
   <si>
     <t>Working with people from different countries can be a challenge because of</t>
   </si>
@@ -346,6 +346,114 @@
   </si>
   <si>
     <t>Not procedural, psychological and motivational TRY interactional, distributive and psychological</t>
+  </si>
+  <si>
+    <t>Mission and vision play a prominent role in the planning facet of the POLC framework</t>
+  </si>
+  <si>
+    <t>Firms with clearly communicated, widely understood and collevtively shared mission and vision have been shown</t>
+  </si>
+  <si>
+    <t>According to the principles of visionary leadership, the essentials for successful revolution include all except</t>
+  </si>
+  <si>
+    <t>Good vision statements need to create some dissonance with the status quo of an organization</t>
+  </si>
+  <si>
+    <t>A stakeholder group composed of the CEO and members of the top management team is considered an important stakeholder group for all of the following reasons except</t>
+  </si>
+  <si>
+    <t>Consciously creating an environment where passion is both encouraged and developed starts at the top through the communication of mission and vision</t>
+  </si>
+  <si>
+    <t>The four categories of stakeholders of a firm are</t>
+  </si>
+  <si>
+    <t>Organizational, capital market, product market and social</t>
+  </si>
+  <si>
+    <t>Firms rely on bottom-up innovation processes to communicate a strategy because of all the following except</t>
+  </si>
+  <si>
+    <t>Creativity and passion can influence the organization's strategy</t>
+  </si>
+  <si>
+    <t>Human resources management alignment means</t>
+  </si>
+  <si>
+    <t>Strategy encourages actions that support the culture of the organization</t>
+  </si>
+  <si>
+    <t>The communication step of the mission and vision statements development process is analogous to which step in the principles of management framework</t>
+  </si>
+  <si>
+    <t>Stakeholder analysis may also enable managers to identify other parties that might support well-formulated strategies</t>
+  </si>
+  <si>
+    <t>The supplies needed for nominal group technique includes all except</t>
+  </si>
+  <si>
+    <t>Customers, employees and investors are the stakeholders most often emphasized in the mission statements</t>
+  </si>
+  <si>
+    <t>Lateral thinking can generate completely new concepts and ideas and brilliant improvements to existing systems</t>
+  </si>
+  <si>
+    <t>Mission and vision statements are designed to provide a statement of justification for existence to an organization</t>
+  </si>
+  <si>
+    <t>Mission and vision development are analogous to which step in the principles of management framework</t>
+  </si>
+  <si>
+    <t>The monitoring step of the mission and vision statements development process is analogous to which step of the principles of management framework</t>
+  </si>
+  <si>
+    <t>The degree to which a stakeholder is affected by a firm's decisions is sometimes correlated with their power and influence over the decision</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Mission and vision both relate to an organization's purpose and are typically communicated orally</t>
+  </si>
+  <si>
+    <t>Organizations that successfully align human resources management with mission and vision accomplishment do so by integrating SHRM into the organizing process</t>
+  </si>
+  <si>
+    <t>Organizational design is used to match the form of the organization as closely as possible to the vision of the organization</t>
+  </si>
+  <si>
+    <t>A useful personal mission and vision statement should include all of the following except</t>
+  </si>
+  <si>
+    <t>Cultural systems</t>
+  </si>
+  <si>
+    <t>The content of the mission and vision statements process is analogous to which step in the principles of management framework</t>
+  </si>
+  <si>
+    <t>Organizing</t>
+  </si>
+  <si>
+    <t>Its power and influence in the organization</t>
+  </si>
+  <si>
+    <t>Perform better than those without them</t>
+  </si>
+  <si>
+    <t>Controlling</t>
+  </si>
+  <si>
+    <t>Communicating upward means that the support of the people needed to implement the strategy is accomplished</t>
+  </si>
+  <si>
+    <t>What career you would like to take</t>
+  </si>
+  <si>
+    <t>To integrate decisions about people with decisions about the results of an organization</t>
+  </si>
+  <si>
+    <t>A computer</t>
   </si>
 </sst>
 </file>
@@ -702,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,6 +1412,214 @@
       </c>
       <c r="B74" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Exam Summary.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Exam Summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
   <si>
     <t>Working with people from different countries can be a challenge because of</t>
   </si>
@@ -454,6 +454,99 @@
   </si>
   <si>
     <t>A computer</t>
+  </si>
+  <si>
+    <t>Not all organizations need strategies to survive and thrive</t>
+  </si>
+  <si>
+    <t>Strategic management process is the coordinated means by which an organization chooses its mission and vision</t>
+  </si>
+  <si>
+    <t>The major diversification strategy through which products are produces that are technically similar to the company's current products but appeal to a new consumer group is</t>
+  </si>
+  <si>
+    <t>A firm's tangible resource includes which of the following</t>
+  </si>
+  <si>
+    <t>Firms utilizing a competitive scope strategy can tailor advertising and promotional efforts to a particular market niche</t>
+  </si>
+  <si>
+    <t>The industry characteristics that make it very difficult for firms ro achieve strategic competitiveness and earn above-average returns includes all of the following except</t>
+  </si>
+  <si>
+    <t>The best strategies, corporate and business, are based on a thorough SWOT analysis</t>
+  </si>
+  <si>
+    <t>Cost leadership is a low-cost, broad-based market strategy</t>
+  </si>
+  <si>
+    <t>Two or more firms competing for a differentiation may engage in price wars that drive profits to very low levels</t>
+  </si>
+  <si>
+    <t>Concentric diversification</t>
+  </si>
+  <si>
+    <t>Design and emergence strategies involve specific levels of the organization</t>
+  </si>
+  <si>
+    <t>Cost leaders must maintain their marketing or face the possible entry of more cost-effective competitors</t>
+  </si>
+  <si>
+    <t>A firm's strategy includes which of the following</t>
+  </si>
+  <si>
+    <t>At Intel the key historic decision to abandon memory chips and concentrate upon microprocessors was the result of which of the following</t>
+  </si>
+  <si>
+    <t>The purpose of diversification is</t>
+  </si>
+  <si>
+    <t>Industry characteristics of an attractive industry, one where firms may achieve strategic competitiveness and earn above-average returns includes which of the following</t>
+  </si>
+  <si>
+    <t>The intensity of industry competition and an industry's profit potential are a function of which of the following forces of competition</t>
+  </si>
+  <si>
+    <t>Strategy formulation is essentially the aim of the organizing, leading and controlling components of the POLC framework</t>
+  </si>
+  <si>
+    <t>One approach to focusing is to service either industrial buyers or consumers, but not both</t>
+  </si>
+  <si>
+    <t>Captures how vision and mission will be achieved</t>
+  </si>
+  <si>
+    <t>Strategy is a pattern of resource allocation choices and organizational arrangements that result from managerial decision making</t>
+  </si>
+  <si>
+    <t>Superiority in competitive advantage refers to all of the following factors except</t>
+  </si>
+  <si>
+    <t>It is important to note that the concept of strategy is relevant to only large, public companies like GE</t>
+  </si>
+  <si>
+    <t>Low cost</t>
+  </si>
+  <si>
+    <t>To spread out risk and opportunities over a larger set of business</t>
+  </si>
+  <si>
+    <t>Suppliers and buyers with little bargaining power</t>
+  </si>
+  <si>
+    <t>Strategy formulation is an essential component of the POLC framework</t>
+  </si>
+  <si>
+    <t>Production equipment</t>
+  </si>
+  <si>
+    <t>Relatively moderate rivalry</t>
+  </si>
+  <si>
+    <t>Acknowledged by top management</t>
+  </si>
+  <si>
+    <t>Threats posed by new entrants</t>
   </si>
 </sst>
 </file>
@@ -810,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,6 +1712,182 @@
         <v>121</v>
       </c>
       <c r="B100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" t="b">
         <v>0</v>
       </c>
     </row>
